--- a/media/generated_docs/my_orders_283.xlsx
+++ b/media/generated_docs/my_orders_283.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="167" visibility="visible" windowHeight="21600" windowWidth="38400" xWindow="0" yWindow="-460"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Штрих-код</t>
   </si>
@@ -41,6 +41,27 @@
   </si>
   <si>
     <t>Территория</t>
+  </si>
+  <si>
+    <t>12341244124124121421</t>
+  </si>
+  <si>
+    <t>Тестовая сметана</t>
+  </si>
+  <si>
+    <t>IPR group</t>
+  </si>
+  <si>
+    <t>Казань, Республика Татарстан, Россия - улица Адоратского</t>
+  </si>
+  <si>
+    <t>02.03.2018</t>
+  </si>
+  <si>
+    <t>М-1</t>
+  </si>
+  <si>
+    <t>Ашхабадская улица 5, Реутов, Московская область</t>
   </si>
 </sst>
 </file>
@@ -104,10 +125,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -469,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -513,18 +536,62 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2">
-        <f>F2*G2</f>
-        <v/>
-      </c>
-      <c r="I2" s="2" t="n"/>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>700</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1.052777777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.052777777777778"/>
